--- a/biology/Botanique/If_du_Japon/If_du_Japon.xlsx
+++ b/biology/Botanique/If_du_Japon/If_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'If du Japon (Taxus cuspidata) est un arbre ou arbuste de la famille des Taxacées à croissance lente, mais à longévité exceptionnelle (plusieurs centaines d'années, certains auraient plus de 2000 ans).
 </t>
@@ -511,9 +523,11 @@
           <t>Symbole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'If du Japon symbolise la ville Kitami. Son nom en japonais est : イチイ (ichii)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'If du Japon symbolise la ville Kitami. Son nom en japonais est : イチイ (ichii).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuillage persistant, feuilles plus larges et pointues
 Hauteur : 10 à 18 m ; entre 30 cm et 1,5 m selon les cultivars
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique du genre Taxus est dérivé de "taxos" correspondant au nom grec de l'if européen qui signifie "arc". Le nom d'espèce cuspidata signifie quant à lui "pointu".
 </t>
@@ -605,9 +623,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'If du japon est présent au Japon, en Corée, Chine, et Russie[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'If du japon est présent au Japon, en Corée, Chine, et Russie
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'il ne semble pas y avoir de littérature spécifique concernant la toxicité de l'espèce cuspidata, le genre Taxus est connu pour sa grande toxicité, tant pour l'homme que pour les animaux. En général, cette toxicité est plutôt citée en regard de l'If commun (Taxus baccata), le plus connu des ifs[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il ne semble pas y avoir de littérature spécifique concernant la toxicité de l'espèce cuspidata, le genre Taxus est connu pour sa grande toxicité, tant pour l'homme que pour les animaux. En général, cette toxicité est plutôt citée en regard de l'If commun (Taxus baccata), le plus connu des ifs.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Taxus cuspidata var. 'Aurescens'
 Taxus cuspidata var. 'Bright-gold'
